--- a/LIMS User Details For Automation.xlsx
+++ b/LIMS User Details For Automation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OrgNode" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="236">
   <si>
     <t>Location</t>
   </si>
@@ -607,21 +607,9 @@
     <t>Registration_LastName</t>
   </si>
   <si>
-    <t>REGAUTO1</t>
-  </si>
-  <si>
-    <t>REGAUTO2</t>
-  </si>
-  <si>
     <t>REGAUTO</t>
   </si>
   <si>
-    <t>REG001</t>
-  </si>
-  <si>
-    <t>REG002</t>
-  </si>
-  <si>
     <t>Qualitative Test -1</t>
   </si>
   <si>
@@ -716,13 +704,49 @@
   </si>
   <si>
     <t>RM Quantitative Test-6</t>
+  </si>
+  <si>
+    <t>SMAUTO8</t>
+  </si>
+  <si>
+    <t>SM008</t>
+  </si>
+  <si>
+    <t>SMAUTO9</t>
+  </si>
+  <si>
+    <t>SM009</t>
+  </si>
+  <si>
+    <t>REGAUTO5</t>
+  </si>
+  <si>
+    <t>REG005</t>
+  </si>
+  <si>
+    <t>REGAUTO6</t>
+  </si>
+  <si>
+    <t>REG006</t>
+  </si>
+  <si>
+    <t>STBAUTO8</t>
+  </si>
+  <si>
+    <t>STB008</t>
+  </si>
+  <si>
+    <t>STBAUTO9</t>
+  </si>
+  <si>
+    <t>STB009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -905,10 +929,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +963,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1116,21 +1138,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -1141,7 +1163,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1152,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -1163,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1180,19 +1202,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -1200,7 +1222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1232,7 +1254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1310,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1328,7 +1350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1374,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1368,7 +1390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -1376,7 +1398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
@@ -1384,7 +1406,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
@@ -1398,19 +1420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -1418,7 +1440,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1426,7 +1448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1442,7 +1464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1450,7 +1472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1474,7 +1496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1488,19 +1510,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -1508,7 +1530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -1516,7 +1538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -1532,7 +1554,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -1540,7 +1562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1548,7 +1570,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -1556,7 +1578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -1564,7 +1586,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -1572,7 +1594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1580,7 +1602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1588,7 +1610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -1596,7 +1618,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -1604,7 +1626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -1612,7 +1634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -1626,19 +1648,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="A18:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -1646,7 +1668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1662,7 +1684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1670,7 +1692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1678,7 +1700,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +1708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -1694,7 +1716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -1702,7 +1724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1710,7 +1732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1726,7 +1748,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1734,7 +1756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1742,7 +1764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1750,7 +1772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1766,7 +1788,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1780,14 +1802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1795,7 +1817,7 @@
     <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1859,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1851,7 +1873,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1871,20 +1893,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -1892,7 +1914,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -1900,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -1914,20 +1936,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1947,7 +1969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -1967,7 +1989,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
@@ -1987,7 +2009,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -2007,7 +2029,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -2027,7 +2049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>131</v>
       </c>
@@ -2047,7 +2069,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -2067,7 +2089,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>137</v>
       </c>
@@ -2087,7 +2109,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -2107,7 +2129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>142</v>
       </c>
@@ -2127,7 +2149,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>144</v>
       </c>
@@ -2147,7 +2169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>146</v>
       </c>
@@ -2167,7 +2189,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
@@ -2187,7 +2209,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>150</v>
       </c>
@@ -2207,7 +2229,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>152</v>
       </c>
@@ -2227,7 +2249,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -2247,7 +2269,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -2267,7 +2289,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>159</v>
       </c>
@@ -2287,7 +2309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>161</v>
       </c>
@@ -2307,7 +2329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>163</v>
       </c>
@@ -2327,7 +2349,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>165</v>
       </c>
@@ -2347,7 +2369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>167</v>
       </c>
@@ -2367,7 +2389,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>169</v>
       </c>
@@ -2387,7 +2409,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>171</v>
       </c>
@@ -2407,7 +2429,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>173</v>
       </c>
@@ -2427,7 +2449,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -2447,7 +2469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>177</v>
       </c>
@@ -2467,7 +2489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>179</v>
       </c>
@@ -2487,7 +2509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>181</v>
       </c>
@@ -2513,16 +2535,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>184</v>
       </c>
@@ -2533,7 +2555,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>119</v>
       </c>
@@ -2544,7 +2566,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>119</v>
       </c>
@@ -2555,7 +2577,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>119</v>
       </c>
@@ -2566,7 +2588,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>119</v>
       </c>
@@ -2577,7 +2599,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
@@ -2588,7 +2610,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -2599,7 +2621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -2610,7 +2632,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>119</v>
       </c>
@@ -2621,7 +2643,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>119</v>
       </c>
@@ -2632,7 +2654,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>119</v>
       </c>
@@ -2643,7 +2665,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>119</v>
       </c>
@@ -2654,7 +2676,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>119</v>
       </c>
@@ -2665,7 +2687,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>119</v>
       </c>
@@ -2676,7 +2698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>119</v>
       </c>
@@ -2693,121 +2715,121 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B11" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="B13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2817,121 +2839,121 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="B13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2940,20 +2962,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2964,7 +2986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2975,7 +2997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2986,7 +3008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3003,14 +3025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3018,7 +3040,7 @@
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -3038,164 +3060,164 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3204,20 +3226,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="26" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>189</v>
       </c>
@@ -3228,9 +3250,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3239,9 +3261,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3256,20 +3278,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="26" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>184</v>
       </c>
@@ -3280,7 +3302,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
@@ -3291,7 +3313,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -3302,7 +3324,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
@@ -3313,9 +3335,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -3324,9 +3346,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -3341,21 +3363,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>187</v>
       </c>
@@ -3366,7 +3388,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
@@ -3377,7 +3399,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -3388,7 +3410,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -3405,31 +3427,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -3437,7 +3459,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -3445,7 +3467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
@@ -3453,7 +3475,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -3461,7 +3483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -3469,7 +3491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
@@ -3477,7 +3499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
@@ -3485,7 +3507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -3493,7 +3515,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -3501,7 +3523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -3509,7 +3531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
@@ -3523,20 +3545,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -3544,7 +3566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3552,7 +3574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3560,7 +3582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -3568,7 +3590,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3576,7 +3598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -3584,7 +3606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -3592,7 +3614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3600,7 +3622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -3608,7 +3630,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -3616,7 +3638,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>

--- a/LIMS User Details For Automation.xlsx
+++ b/LIMS User Details For Automation.xlsx
@@ -13,7 +13,7 @@
     <sheet name="RegistrationRole" sheetId="24" r:id="rId4"/>
     <sheet name="SampleRole" sheetId="6" r:id="rId5"/>
     <sheet name="StabilityRole" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="26" r:id="rId7"/>
+    <sheet name="SampleRegistration" sheetId="26" r:id="rId7"/>
     <sheet name="MCRole" sheetId="8" r:id="rId8"/>
     <sheet name="CAPARole" sheetId="9" r:id="rId9"/>
     <sheet name="INVRole" sheetId="10" r:id="rId10"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="242">
   <si>
     <t>Location</t>
   </si>
@@ -658,70 +658,88 @@
     <t>TestName</t>
   </si>
   <si>
+    <t>RM Qualitative Test -2</t>
+  </si>
+  <si>
+    <t>RM Qualitative Test -1</t>
+  </si>
+  <si>
+    <t>RM Qualitative Test -3</t>
+  </si>
+  <si>
+    <t>RM Qualitative Test -4</t>
+  </si>
+  <si>
+    <t>RM Qualitative Test -5</t>
+  </si>
+  <si>
+    <t>RM Qualitative Test -6</t>
+  </si>
+  <si>
+    <t>RM Quantitative Test-1</t>
+  </si>
+  <si>
+    <t>RM Quantitative Test-2</t>
+  </si>
+  <si>
+    <t>RM Quantitative Test-3</t>
+  </si>
+  <si>
+    <t>RM Quantitative Test-4</t>
+  </si>
+  <si>
+    <t>RM Quantitative Test-5</t>
+  </si>
+  <si>
+    <t>RM Quantitative Test-6</t>
+  </si>
+  <si>
+    <t>Product_Code</t>
+  </si>
+  <si>
+    <t>Auto_Prod_1</t>
+  </si>
+  <si>
+    <t>Auto_Prod_2</t>
+  </si>
+  <si>
+    <t>Specification_Name</t>
+  </si>
+  <si>
+    <t>Auto_Spec_1</t>
+  </si>
+  <si>
+    <t>Auto_Spec_2</t>
+  </si>
+  <si>
+    <t>Plant-2</t>
+  </si>
+  <si>
     <t>Plant-2-QC</t>
   </si>
   <si>
+    <t>SMAUTO8</t>
+  </si>
+  <si>
+    <t>SM008</t>
+  </si>
+  <si>
+    <t>SMAUTO9</t>
+  </si>
+  <si>
+    <t>SM009</t>
+  </si>
+  <si>
+    <t>Plant-2-QA</t>
+  </si>
+  <si>
+    <t>REGAUTO5</t>
+  </si>
+  <si>
+    <t>REG005</t>
+  </si>
+  <si>
     <t>Plant-2-PF</t>
-  </si>
-  <si>
-    <t>Plant-2-QA</t>
-  </si>
-  <si>
-    <t>Plant-2</t>
-  </si>
-  <si>
-    <t>RM Qualitative Test -2</t>
-  </si>
-  <si>
-    <t>RM Qualitative Test -1</t>
-  </si>
-  <si>
-    <t>RM Qualitative Test -3</t>
-  </si>
-  <si>
-    <t>RM Qualitative Test -4</t>
-  </si>
-  <si>
-    <t>RM Qualitative Test -5</t>
-  </si>
-  <si>
-    <t>RM Qualitative Test -6</t>
-  </si>
-  <si>
-    <t>RM Quantitative Test-1</t>
-  </si>
-  <si>
-    <t>RM Quantitative Test-2</t>
-  </si>
-  <si>
-    <t>RM Quantitative Test-3</t>
-  </si>
-  <si>
-    <t>RM Quantitative Test-4</t>
-  </si>
-  <si>
-    <t>RM Quantitative Test-5</t>
-  </si>
-  <si>
-    <t>RM Quantitative Test-6</t>
-  </si>
-  <si>
-    <t>SMAUTO8</t>
-  </si>
-  <si>
-    <t>SM008</t>
-  </si>
-  <si>
-    <t>SMAUTO9</t>
-  </si>
-  <si>
-    <t>SM009</t>
-  </si>
-  <si>
-    <t>REGAUTO5</t>
-  </si>
-  <si>
-    <t>REG005</t>
   </si>
   <si>
     <t>REGAUTO6</t>
@@ -2862,7 +2880,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>193</v>
@@ -2870,7 +2888,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>193</v>
@@ -2878,7 +2896,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>193</v>
@@ -2886,7 +2904,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>193</v>
@@ -2894,7 +2912,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>193</v>
@@ -2902,7 +2920,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>193</v>
@@ -2910,7 +2928,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>200</v>
@@ -2918,7 +2936,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>200</v>
@@ -2926,7 +2944,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>200</v>
@@ -2934,7 +2952,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>200</v>
@@ -2942,7 +2960,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>200</v>
@@ -2950,7 +2968,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>200</v>
@@ -3029,7 +3047,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3065,7 +3083,7 @@
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>119</v>
@@ -3077,147 +3095,147 @@
         <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>208</v>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" t="s">
         <v>232</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3428,13 +3446,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LIMS User Details For Automation.xlsx
+++ b/LIMS User Details For Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OrgNode" sheetId="14" r:id="rId1"/>
@@ -697,21 +697,9 @@
     <t>Product_Code</t>
   </si>
   <si>
-    <t>Auto_Prod_1</t>
-  </si>
-  <si>
-    <t>Auto_Prod_2</t>
-  </si>
-  <si>
     <t>Specification_Name</t>
   </si>
   <si>
-    <t>Auto_Spec_1</t>
-  </si>
-  <si>
-    <t>Auto_Spec_2</t>
-  </si>
-  <si>
     <t>Plant-2</t>
   </si>
   <si>
@@ -758,6 +746,18 @@
   </si>
   <si>
     <t>STB009</t>
+  </si>
+  <si>
+    <t>Auto_Spec_3</t>
+  </si>
+  <si>
+    <t>Auto_Prod_3</t>
+  </si>
+  <si>
+    <t>Auto_Prod_4</t>
+  </si>
+  <si>
+    <t>Auto_Spec_4</t>
   </si>
 </sst>
 </file>
@@ -3046,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3083,7 +3083,7 @@
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>119</v>
@@ -3095,15 +3095,15 @@
         <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
         <v>119</v>
@@ -3112,18 +3112,18 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
@@ -3132,18 +3132,18 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
         <v>191</v>
@@ -3152,18 +3152,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>191</v>
@@ -3172,10 +3172,10 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3183,7 +3183,7 @@
         <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
         <v>155</v>
@@ -3195,15 +3195,15 @@
         <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
         <v>155</v>
@@ -3212,18 +3212,18 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
         <v>155</v>
@@ -3232,10 +3232,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3448,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3463,23 +3463,23 @@
         <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/LIMS User Details For Automation.xlsx
+++ b/LIMS User Details For Automation.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="248">
   <si>
     <t>Location</t>
   </si>
@@ -758,6 +758,24 @@
   </si>
   <si>
     <t>Auto_Spec_4</t>
+  </si>
+  <si>
+    <t>Auto_Prod_5</t>
+  </si>
+  <si>
+    <t>Auto_Spec_5</t>
+  </si>
+  <si>
+    <t>Auto_Prod_6</t>
+  </si>
+  <si>
+    <t>Auto_Spec_6</t>
+  </si>
+  <si>
+    <t>Auto_Prod_7</t>
+  </si>
+  <si>
+    <t>Auto_Spec_7</t>
   </si>
 </sst>
 </file>
@@ -3446,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3480,6 +3498,30 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/LIMS User Details For Automation.xlsx
+++ b/LIMS User Details For Automation.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="258">
   <si>
     <t>Location</t>
   </si>
@@ -776,6 +776,36 @@
   </si>
   <si>
     <t>Auto_Spec_7</t>
+  </si>
+  <si>
+    <t>Auto_Prod_8</t>
+  </si>
+  <si>
+    <t>Auto_Spec_8</t>
+  </si>
+  <si>
+    <t>Auto_Prod_9</t>
+  </si>
+  <si>
+    <t>Auto_Spec_9</t>
+  </si>
+  <si>
+    <t>Auto_Prod_10</t>
+  </si>
+  <si>
+    <t>Auto_Spec_10</t>
+  </si>
+  <si>
+    <t>Auto_Prod_11</t>
+  </si>
+  <si>
+    <t>Auto_Spec_11</t>
+  </si>
+  <si>
+    <t>Auto_Prod_12</t>
+  </si>
+  <si>
+    <t>Auto_Spec_12</t>
   </si>
 </sst>
 </file>
@@ -3464,10 +3494,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3522,6 +3552,46 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
